--- a/Excel/AirServiceCharge.xlsx
+++ b/Excel/AirServiceCharge.xlsx
@@ -36,9 +36,6 @@
     <t>Air Service Charge</t>
   </si>
   <si>
-    <t>EMIRATES</t>
-  </si>
-  <si>
     <t>Servicehcargename</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Per-Booking</t>
+  </si>
+  <si>
+    <t>EM</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,52 +523,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="R1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -582,52 +582,52 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
